--- a/mixed/Cutoff Payment Configuration v181218 - One CutOff.xlsx
+++ b/mixed/Cutoff Payment Configuration v181218 - One CutOff.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gva-fs01.hindujabank.net\HomeUsers$\lbu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco SPAGNULO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383B90F6-6C79-4627-82DA-9632D9D0B9A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9900" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data input" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Cutoff config" sheetId="1" r:id="rId2"/>
-    <sheet name="Treasury check config" sheetId="4" r:id="rId3"/>
-    <sheet name="Other config" sheetId="3" r:id="rId4"/>
-    <sheet name="Rule" sheetId="5" r:id="rId5"/>
+    <sheet name="ALCO" sheetId="6" r:id="rId2"/>
+    <sheet name="Cutoff config" sheetId="1" r:id="rId3"/>
+    <sheet name="Treasury check config" sheetId="4" r:id="rId4"/>
+    <sheet name="Other config" sheetId="3" r:id="rId5"/>
+    <sheet name="Rule" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cutoff config'!$A$4:$Y$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ALCO!$C$4:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cutoff config'!$A$4:$Y$56</definedName>
     <definedName name="Autoupdate">'Data input'!$E$2:$E$3</definedName>
     <definedName name="Cutoff_missed">'Data input'!$C$2:$C$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Cutoff config'!$B$5:$I$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ALCO!$B$5:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Cutoff config'!$B$5:$I$56</definedName>
     <definedName name="Setup">'Data input'!$F$2:$F$4</definedName>
     <definedName name="Suggested">'Data input'!$D$2:$D$4</definedName>
     <definedName name="Time">'Data input'!$B$3:$B$50</definedName>
@@ -30,17 +34,23 @@
     <definedName name="Treasury">'Data input'!$G$2:$G$5</definedName>
     <definedName name="Value_date">'Data input'!$A$2:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="197">
   <si>
     <t>Minimum allowed value date</t>
   </si>
@@ -543,21 +553,148 @@
   <si>
     <t>Before the cutoff time during which orders should go into treasury check</t>
   </si>
+  <si>
+    <t>PACS008/9 CHF</t>
+  </si>
+  <si>
+    <t>PACS008/9 EUR</t>
+  </si>
+  <si>
+    <t>KBC</t>
+  </si>
+  <si>
+    <t>RBI</t>
+  </si>
+  <si>
+    <t>BCGE</t>
+  </si>
+  <si>
+    <t>INDUSIND</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Correspondent</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HUF</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>G20 Advanced Countries</t>
+  </si>
+  <si>
+    <t>G20 Emerging and Developing Countries</t>
+  </si>
+  <si>
+    <t>Other Advanced Countries</t>
+  </si>
+  <si>
+    <t>Other Emerging and Developing Countries</t>
+  </si>
+  <si>
+    <t>Cut-Off time</t>
+  </si>
+  <si>
+    <t>Internal Cut-Off</t>
+  </si>
+  <si>
+    <t>time to VD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,8 +777,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +834,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,64 +1032,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,75 +1101,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,26 +1505,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1329,7 +1547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -1352,7 +1570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1375,7 +1593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -1393,7 +1611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1406,7 +1624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -1416,265 +1634,265 @@
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>0.104166666666667</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>0.125</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>0.14583333333333301</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>0.16666666666666699</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>0.1875</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>0.20833333333333301</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>0.22916666666666699</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>0.25</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>0.27083333333333298</v>
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>0.29166666666666702</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>0.3125</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>0.33333333333333298</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>0.35416666666666702</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>0.375</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>0.39583333333333298</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>0.41666666666666702</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>0.4375</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>0.45833333333333298</v>
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>0.47916666666666702</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>0.5</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <v>0.52083333333333304</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>0.54166666666666696</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>0.5625</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="10">
         <v>0.58333333333333304</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="10">
         <v>0.60416666666666696</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="10">
         <v>0.625</v>
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="10">
         <v>0.64583333333333304</v>
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>0.66666666666666696</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>0.6875</v>
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>0.70833333333333304</v>
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="10">
         <v>0.72916666666666696</v>
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <v>0.75</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="10">
         <v>0.77083333333333304</v>
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <v>0.79166666666666696</v>
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="10">
         <v>0.8125</v>
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>0.83333333333333304</v>
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="10">
         <v>0.85416666666666696</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="10">
         <v>0.875</v>
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="10">
         <v>0.89583333333333304</v>
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="10">
         <v>0.91666666666666696</v>
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="10">
         <v>0.9375</v>
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="10">
         <v>0.95833333333333304</v>
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="10">
         <v>0.97916666666666696</v>
       </c>
@@ -1686,42 +1904,2567 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277217AE-AA65-4D2E-AD95-A67F1E490D53}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BA257"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17" style="61" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="11" customWidth="1"/>
+    <col min="9" max="11" width="20.5546875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" style="11" customWidth="1"/>
+    <col min="13" max="50" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:53" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="15"/>
+      <c r="B2" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:53" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="11"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:53" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:53" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="G6" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:53" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.45833333333333393</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="63">
+        <v>1</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="54">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J7" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G7,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K7" s="54">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L7" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G7,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="25">
+        <v>23.583333333333332</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="64">
+        <v>1</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J8" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G8,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K8" s="67">
+        <v>0.62499999999999967</v>
+      </c>
+      <c r="L8" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G8,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="63">
+        <v>1</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="54">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J9" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G9,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0.62500000000000033</v>
+      </c>
+      <c r="L9" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G9,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.45833333333333304</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="64">
+        <v>1</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0.6875</v>
+      </c>
+      <c r="J10" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G10,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K10" s="67">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L10" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G10,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.45833333333333393</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="63">
+        <v>1</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="54">
+        <v>0.6875</v>
+      </c>
+      <c r="J11" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G11,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L11" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G11,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+    </row>
+    <row r="12" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.45833333333333393</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="64">
+        <v>1</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="67">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J12" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G12,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K12" s="67">
+        <v>0.45833333333333304</v>
+      </c>
+      <c r="L12" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G12,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+    </row>
+    <row r="13" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.35416666666666696</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="63">
+        <v>1</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G13,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K13" s="54">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L13" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G13,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+    </row>
+    <row r="14" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="25">
+        <v>23.541666666666668</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="64">
+        <v>1</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="67">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J14" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G14,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K14" s="67">
+        <v>0.56249999999999978</v>
+      </c>
+      <c r="L14" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G14,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+    </row>
+    <row r="15" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="63">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="54">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J15" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G15,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K15" s="54">
+        <v>0.5833333333333337</v>
+      </c>
+      <c r="L15" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G15,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+    </row>
+    <row r="16" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="G16" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+    </row>
+    <row r="17" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.35416666666666607</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="64">
+        <v>2</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="67">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J17" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G17,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="K17" s="67">
+        <v>0.62500000000000033</v>
+      </c>
+      <c r="L17" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G17,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-3v</v>
+      </c>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+    </row>
+    <row r="18" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="25">
+        <v>23.5</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="63">
+        <v>2</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G18,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="K18" s="54">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L18" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G18,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-3v</v>
+      </c>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+    </row>
+    <row r="19" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.35416666666666607</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="64">
+        <v>2</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="67">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J19" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G19,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K19" s="67">
+        <v>0.47916666666666607</v>
+      </c>
+      <c r="L19" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G19,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+    </row>
+    <row r="20" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="25">
+        <v>23.583333333333332</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="63">
+        <v>2</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="54">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J20" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G20,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K20" s="54">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L20" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G20,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+    </row>
+    <row r="21" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="25">
+        <v>23.708333333333332</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="64">
+        <v>2</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="67">
+        <v>0.6875</v>
+      </c>
+      <c r="J21" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G21,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K21" s="67">
+        <v>0.625</v>
+      </c>
+      <c r="L21" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G21,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+    </row>
+    <row r="22" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0.41666666666666607</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="63">
+        <v>2</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="54">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J22" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G22,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K22" s="54">
+        <v>23.708333333333332</v>
+      </c>
+      <c r="L22" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G22,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+    </row>
+    <row r="23" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="25">
+        <v>23.541666666666668</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="64">
+        <v>2</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="67">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="J23" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G23,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K23" s="67">
+        <v>23.708333333333332</v>
+      </c>
+      <c r="L23" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G23,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+    </row>
+    <row r="24" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.41666666666666607</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="63">
+        <v>2</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="54">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J24" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G24,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K24" s="54">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L24" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G24,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+    </row>
+    <row r="25" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="25">
+        <v>23.541666666666668</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="G25" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+    </row>
+    <row r="26" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.45833333333333304</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="64">
+        <v>3</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="67">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="J26" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G26,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K26" s="67">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L26" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G26,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+    </row>
+    <row r="27" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="25">
+        <v>23.541666666666664</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="63">
+        <v>3</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="54">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="J27" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G27,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K27" s="54">
+        <v>0.62500000000000033</v>
+      </c>
+      <c r="L27" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G27,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+    </row>
+    <row r="28" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="25">
+        <v>23.541666666666668</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="64">
+        <v>3</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="67">
+        <v>0.4375</v>
+      </c>
+      <c r="J28" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G28,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K28" s="67">
+        <v>23.75</v>
+      </c>
+      <c r="L28" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G28,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+    </row>
+    <row r="29" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="25">
+        <v>23.541666666666664</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="63">
+        <v>3</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="54">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="J29" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G29,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K29" s="54">
+        <v>23.666666666666668</v>
+      </c>
+      <c r="L29" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G29,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+    </row>
+    <row r="30" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.41666666666666696</v>
+      </c>
+      <c r="E30" s="54"/>
+      <c r="F30" s="64">
+        <v>3</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="67">
+        <v>0.4375</v>
+      </c>
+      <c r="J30" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G30,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K30" s="67">
+        <v>23.708333333333332</v>
+      </c>
+      <c r="L30" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G30,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+    </row>
+    <row r="31" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="25">
+        <v>23.541666666666664</v>
+      </c>
+      <c r="E31" s="54"/>
+      <c r="F31" s="63">
+        <v>3</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="54">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="J31" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G31,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K31" s="54">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="L31" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G31,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+    </row>
+    <row r="32" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0.39583333333333304</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="64">
+        <v>3</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="67">
+        <v>0.4375</v>
+      </c>
+      <c r="J32" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G32,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K32" s="67">
+        <v>23.708333333333332</v>
+      </c>
+      <c r="L32" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G32,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+    </row>
+    <row r="33" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.41666666666666696</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="63">
+        <v>3</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="54">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="J33" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G33,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K33" s="54">
+        <v>23.708333333333332</v>
+      </c>
+      <c r="L33" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G33,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+    </row>
+    <row r="34" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0.41666666666666607</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="G34" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+    </row>
+    <row r="35" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="F35" s="63">
+        <v>4</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="54">
+        <v>0.4375</v>
+      </c>
+      <c r="J35" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G35,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K35" s="54">
+        <v>23.75</v>
+      </c>
+      <c r="L35" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G35,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+    </row>
+    <row r="36" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="F36" s="64">
+        <v>4</v>
+      </c>
+      <c r="G36" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="67">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="J36" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G36,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+      <c r="K36" s="67">
+        <v>0.45833333333333304</v>
+      </c>
+      <c r="L36" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G36,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+    </row>
+    <row r="37" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="F37" s="63">
+        <v>3</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="54">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="J37" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G37,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-0v</v>
+      </c>
+      <c r="K37" s="54">
+        <v>23.708333333333336</v>
+      </c>
+      <c r="L37" s="54" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G37,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-1v</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" s="11" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="F38" s="64">
+        <v>4</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="67">
+        <v>0.625</v>
+      </c>
+      <c r="J38" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G38,'Cutoff config'!$A:$F,5,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+      <c r="K38" s="67">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L38" s="67" t="str">
+        <f>"-"&amp;RIGHT(VLOOKUP(G38,'Cutoff config'!$A:$F,6,FALSE),2)</f>
+        <v>-2v</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:53" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+    </row>
+    <row r="44" spans="1:53" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="AY44"/>
+      <c r="AZ44"/>
+      <c r="BA44"/>
+    </row>
+    <row r="45" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+    </row>
+    <row r="47" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:53" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+    </row>
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+    </row>
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+    </row>
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+    </row>
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+    </row>
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+    </row>
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="15" t="str">
+        <f>RIGHT(B60,3)</f>
+        <v>ARS</v>
+      </c>
+      <c r="H60" s="56"/>
+      <c r="I60" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E61" s="54"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="15" t="str">
+        <f>RIGHT(B61,3)</f>
+        <v>BRL</v>
+      </c>
+      <c r="H61" s="56"/>
+      <c r="I61" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="15" t="str">
+        <f>RIGHT(B62,3)</f>
+        <v>CYP</v>
+      </c>
+      <c r="H62" s="56"/>
+      <c r="I62" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="15" t="str">
+        <f>RIGHT(B63,3)</f>
+        <v>CZK</v>
+      </c>
+      <c r="H63" s="56"/>
+      <c r="I63" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="15" t="str">
+        <f>RIGHT(B64,3)</f>
+        <v>EEK</v>
+      </c>
+      <c r="H64" s="56"/>
+      <c r="I64" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="15" t="str">
+        <f>RIGHT(B65,3)</f>
+        <v>IDR</v>
+      </c>
+      <c r="H65" s="56"/>
+      <c r="I65" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="15" t="str">
+        <f>RIGHT(B66,3)</f>
+        <v>ILS</v>
+      </c>
+      <c r="H66" s="56"/>
+      <c r="I66" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E67" s="54"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="15" t="str">
+        <f>RIGHT(B67,3)</f>
+        <v>ISK</v>
+      </c>
+      <c r="H67" s="56"/>
+      <c r="I67" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="15" t="str">
+        <f>RIGHT(B68,3)</f>
+        <v>JOD</v>
+      </c>
+      <c r="H68" s="56"/>
+      <c r="I68" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E69" s="54"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="15" t="str">
+        <f>RIGHT(B69,3)</f>
+        <v>KWD</v>
+      </c>
+      <c r="H69" s="56"/>
+      <c r="I69" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E70" s="54"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="15" t="str">
+        <f>RIGHT(B70,3)</f>
+        <v>LVL</v>
+      </c>
+      <c r="H70" s="56"/>
+      <c r="I70" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E71" s="54"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="15" t="str">
+        <f>RIGHT(B71,3)</f>
+        <v>MAD</v>
+      </c>
+      <c r="H71" s="56"/>
+      <c r="I71" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E72" s="54"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="15" t="str">
+        <f>RIGHT(B72,3)</f>
+        <v>MYR</v>
+      </c>
+      <c r="H72" s="56"/>
+      <c r="I72" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E73" s="54"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="15" t="str">
+        <f>RIGHT(B73,3)</f>
+        <v>OMR</v>
+      </c>
+      <c r="H73" s="56"/>
+      <c r="I73" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E74" s="54"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="15" t="str">
+        <f>RIGHT(B74,3)</f>
+        <v>PEN</v>
+      </c>
+      <c r="H74" s="56"/>
+      <c r="I74" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E75" s="54"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="15" t="str">
+        <f>RIGHT(B75,3)</f>
+        <v>PHP</v>
+      </c>
+      <c r="H75" s="56"/>
+      <c r="I75" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E76" s="54"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="15" t="str">
+        <f>RIGHT(B76,3)</f>
+        <v>QAR</v>
+      </c>
+      <c r="H76" s="56"/>
+      <c r="I76" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E77" s="54"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="15" t="str">
+        <f>RIGHT(B77,3)</f>
+        <v>RON</v>
+      </c>
+      <c r="H77" s="56"/>
+      <c r="I77" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E78" s="54"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="15" t="str">
+        <f>RIGHT(B78,3)</f>
+        <v>TWD</v>
+      </c>
+      <c r="H78" s="56"/>
+      <c r="I78" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25">
+        <v>0.49999999999999972</v>
+      </c>
+      <c r="E79" s="54"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="15" t="str">
+        <f>RIGHT(B79,3)</f>
+        <v>UYU</v>
+      </c>
+      <c r="H79" s="56"/>
+      <c r="I79" s="55">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55">
+        <v>0.54166666666666641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="F80" s="61"/>
+    </row>
+    <row r="81" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15"/>
+      <c r="F83" s="61"/>
+    </row>
+    <row r="84" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
+      <c r="F84" s="61"/>
+    </row>
+    <row r="85" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+      <c r="F85" s="61"/>
+    </row>
+    <row r="86" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
+      <c r="F86" s="61"/>
+    </row>
+    <row r="87" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15"/>
+      <c r="F87" s="61"/>
+    </row>
+    <row r="88" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15"/>
+      <c r="F88" s="61"/>
+    </row>
+    <row r="89" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15"/>
+      <c r="F89" s="61"/>
+    </row>
+    <row r="90" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
+      <c r="F90" s="61"/>
+    </row>
+    <row r="91" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15"/>
+      <c r="F91" s="61"/>
+    </row>
+    <row r="92" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="15"/>
+      <c r="F92" s="61"/>
+    </row>
+    <row r="93" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="F93" s="61"/>
+    </row>
+    <row r="94" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="15"/>
+      <c r="F94" s="61"/>
+    </row>
+    <row r="95" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="15"/>
+      <c r="F95" s="61"/>
+    </row>
+    <row r="96" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
+      <c r="F96" s="61"/>
+    </row>
+    <row r="97" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15"/>
+      <c r="F97" s="61"/>
+    </row>
+    <row r="98" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="15"/>
+      <c r="F98" s="61"/>
+    </row>
+    <row r="99" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="15"/>
+      <c r="F99" s="61"/>
+    </row>
+    <row r="100" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="15"/>
+      <c r="F100" s="61"/>
+    </row>
+    <row r="101" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+      <c r="F101" s="61"/>
+    </row>
+    <row r="102" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15"/>
+      <c r="F102" s="61"/>
+    </row>
+    <row r="103" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15"/>
+      <c r="F103" s="61"/>
+    </row>
+    <row r="104" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="15"/>
+      <c r="F104" s="61"/>
+    </row>
+    <row r="105" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15"/>
+      <c r="F105" s="61"/>
+    </row>
+    <row r="106" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15"/>
+      <c r="F106" s="61"/>
+    </row>
+    <row r="107" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15"/>
+      <c r="F107" s="61"/>
+    </row>
+    <row r="108" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15"/>
+      <c r="F108" s="61"/>
+    </row>
+    <row r="109" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+      <c r="F109" s="61"/>
+    </row>
+    <row r="110" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+      <c r="F110" s="61"/>
+    </row>
+    <row r="111" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+      <c r="F111" s="61"/>
+    </row>
+    <row r="112" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+      <c r="F112" s="61"/>
+    </row>
+    <row r="113" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
+      <c r="F113" s="61"/>
+    </row>
+    <row r="114" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="15"/>
+      <c r="F114" s="61"/>
+    </row>
+    <row r="115" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="15"/>
+      <c r="F115" s="61"/>
+    </row>
+    <row r="116" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="15"/>
+      <c r="F116" s="61"/>
+    </row>
+    <row r="117" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="15"/>
+      <c r="F117" s="61"/>
+    </row>
+    <row r="118" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="15"/>
+      <c r="F118" s="61"/>
+    </row>
+    <row r="119" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="15"/>
+      <c r="F119" s="61"/>
+    </row>
+    <row r="120" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="15"/>
+      <c r="F120" s="61"/>
+    </row>
+    <row r="121" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="15"/>
+      <c r="F121" s="61"/>
+    </row>
+    <row r="122" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="15"/>
+      <c r="F122" s="61"/>
+    </row>
+    <row r="123" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="15"/>
+      <c r="F123" s="61"/>
+    </row>
+    <row r="124" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="15"/>
+      <c r="F124" s="61"/>
+    </row>
+    <row r="125" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="15"/>
+      <c r="F125" s="61"/>
+    </row>
+    <row r="126" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="15"/>
+      <c r="F126" s="61"/>
+    </row>
+    <row r="127" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="15"/>
+      <c r="F127" s="61"/>
+    </row>
+    <row r="128" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="15"/>
+      <c r="F128" s="61"/>
+    </row>
+    <row r="129" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="15"/>
+      <c r="F129" s="61"/>
+    </row>
+    <row r="130" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="15"/>
+      <c r="F130" s="61"/>
+    </row>
+    <row r="131" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="15"/>
+      <c r="F131" s="61"/>
+    </row>
+    <row r="132" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="15"/>
+      <c r="F132" s="61"/>
+    </row>
+    <row r="133" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="15"/>
+      <c r="F133" s="61"/>
+    </row>
+    <row r="134" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="15"/>
+      <c r="F134" s="61"/>
+    </row>
+    <row r="135" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="15"/>
+      <c r="F135" s="61"/>
+    </row>
+    <row r="136" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="15"/>
+      <c r="F136" s="61"/>
+    </row>
+    <row r="137" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="15"/>
+      <c r="F137" s="61"/>
+    </row>
+    <row r="138" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="15"/>
+      <c r="F138" s="61"/>
+    </row>
+    <row r="139" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="15"/>
+      <c r="F139" s="61"/>
+    </row>
+    <row r="140" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="15"/>
+      <c r="F140" s="61"/>
+    </row>
+    <row r="141" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="15"/>
+      <c r="F141" s="61"/>
+    </row>
+    <row r="142" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="15"/>
+      <c r="F142" s="61"/>
+    </row>
+    <row r="143" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="15"/>
+      <c r="F143" s="61"/>
+    </row>
+    <row r="144" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="15"/>
+      <c r="F144" s="61"/>
+    </row>
+    <row r="145" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="15"/>
+      <c r="F145" s="61"/>
+    </row>
+    <row r="146" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="15"/>
+      <c r="F146" s="61"/>
+    </row>
+    <row r="147" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="15"/>
+      <c r="F147" s="61"/>
+    </row>
+    <row r="148" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="15"/>
+      <c r="F148" s="61"/>
+    </row>
+    <row r="149" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="15"/>
+      <c r="F149" s="61"/>
+    </row>
+    <row r="150" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="15"/>
+      <c r="F150" s="61"/>
+    </row>
+    <row r="151" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="15"/>
+      <c r="F151" s="61"/>
+    </row>
+    <row r="152" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="15"/>
+      <c r="F152" s="61"/>
+    </row>
+    <row r="153" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="15"/>
+      <c r="F153" s="61"/>
+    </row>
+    <row r="154" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="15"/>
+      <c r="F154" s="61"/>
+    </row>
+    <row r="155" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="15"/>
+      <c r="F155" s="61"/>
+    </row>
+    <row r="156" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="15"/>
+      <c r="F156" s="61"/>
+    </row>
+    <row r="157" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="15"/>
+      <c r="F157" s="61"/>
+    </row>
+    <row r="158" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="15"/>
+      <c r="F158" s="61"/>
+    </row>
+    <row r="159" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="15"/>
+      <c r="F159" s="61"/>
+    </row>
+    <row r="160" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="15"/>
+      <c r="F160" s="61"/>
+    </row>
+    <row r="161" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="15"/>
+      <c r="F161" s="61"/>
+    </row>
+    <row r="162" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="15"/>
+      <c r="F162" s="61"/>
+    </row>
+    <row r="163" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="15"/>
+      <c r="F163" s="61"/>
+    </row>
+    <row r="164" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="15"/>
+      <c r="F164" s="61"/>
+    </row>
+    <row r="165" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="15"/>
+      <c r="F165" s="61"/>
+    </row>
+    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="15"/>
+      <c r="F166" s="61"/>
+    </row>
+    <row r="167" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="15"/>
+      <c r="F167" s="61"/>
+    </row>
+    <row r="168" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="15"/>
+      <c r="F168" s="61"/>
+    </row>
+    <row r="169" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="15"/>
+      <c r="F169" s="61"/>
+    </row>
+    <row r="170" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="15"/>
+      <c r="F170" s="61"/>
+    </row>
+    <row r="171" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="15"/>
+      <c r="F171" s="61"/>
+    </row>
+    <row r="172" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="15"/>
+      <c r="F172" s="61"/>
+    </row>
+    <row r="173" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="15"/>
+      <c r="F173" s="61"/>
+    </row>
+    <row r="174" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="15"/>
+      <c r="F174" s="61"/>
+    </row>
+    <row r="175" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="15"/>
+      <c r="F175" s="61"/>
+    </row>
+    <row r="176" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="15"/>
+      <c r="F176" s="61"/>
+    </row>
+    <row r="177" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="15"/>
+      <c r="F177" s="61"/>
+    </row>
+    <row r="178" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="15"/>
+      <c r="F178" s="61"/>
+    </row>
+    <row r="179" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="15"/>
+      <c r="F179" s="61"/>
+    </row>
+    <row r="180" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="15"/>
+      <c r="F180" s="61"/>
+    </row>
+    <row r="181" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="15"/>
+      <c r="F181" s="61"/>
+    </row>
+    <row r="182" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="15"/>
+      <c r="F182" s="61"/>
+    </row>
+    <row r="183" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="15"/>
+      <c r="F183" s="61"/>
+    </row>
+    <row r="184" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="15"/>
+      <c r="F184" s="61"/>
+    </row>
+    <row r="185" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="15"/>
+      <c r="F185" s="61"/>
+    </row>
+    <row r="186" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="15"/>
+      <c r="F186" s="61"/>
+    </row>
+    <row r="187" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="15"/>
+      <c r="F187" s="61"/>
+    </row>
+    <row r="188" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="15"/>
+      <c r="F188" s="61"/>
+    </row>
+    <row r="189" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="15"/>
+      <c r="F189" s="61"/>
+    </row>
+    <row r="190" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="15"/>
+      <c r="F190" s="61"/>
+    </row>
+    <row r="191" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="15"/>
+      <c r="F191" s="61"/>
+    </row>
+    <row r="192" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="15"/>
+      <c r="F192" s="61"/>
+    </row>
+    <row r="193" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="15"/>
+      <c r="F193" s="61"/>
+    </row>
+    <row r="194" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="15"/>
+      <c r="F194" s="61"/>
+    </row>
+    <row r="195" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="15"/>
+      <c r="F195" s="61"/>
+    </row>
+    <row r="196" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="15"/>
+      <c r="F196" s="61"/>
+    </row>
+    <row r="197" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="15"/>
+      <c r="F197" s="61"/>
+    </row>
+    <row r="198" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="15"/>
+      <c r="F198" s="61"/>
+    </row>
+    <row r="199" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="15"/>
+      <c r="F199" s="61"/>
+    </row>
+    <row r="200" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="15"/>
+      <c r="F200" s="61"/>
+    </row>
+    <row r="201" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="15"/>
+      <c r="F201" s="61"/>
+    </row>
+    <row r="202" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="15"/>
+      <c r="F202" s="61"/>
+    </row>
+    <row r="203" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="15"/>
+      <c r="F203" s="61"/>
+    </row>
+    <row r="204" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="15"/>
+      <c r="F204" s="61"/>
+    </row>
+    <row r="205" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="15"/>
+      <c r="F205" s="61"/>
+    </row>
+    <row r="206" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="15"/>
+      <c r="F206" s="61"/>
+    </row>
+    <row r="207" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="15"/>
+      <c r="F207" s="61"/>
+    </row>
+    <row r="208" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="15"/>
+      <c r="F208" s="61"/>
+    </row>
+    <row r="209" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="15"/>
+      <c r="F209" s="61"/>
+    </row>
+    <row r="210" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="15"/>
+      <c r="F210" s="61"/>
+    </row>
+    <row r="211" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="15"/>
+      <c r="F211" s="61"/>
+    </row>
+    <row r="212" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="15"/>
+      <c r="F212" s="61"/>
+    </row>
+    <row r="213" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="15"/>
+      <c r="F213" s="61"/>
+    </row>
+    <row r="214" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="15"/>
+      <c r="F214" s="61"/>
+    </row>
+    <row r="215" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="15"/>
+      <c r="F215" s="61"/>
+    </row>
+    <row r="216" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="15"/>
+      <c r="F216" s="61"/>
+    </row>
+    <row r="217" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="15"/>
+      <c r="F217" s="61"/>
+    </row>
+    <row r="218" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="15"/>
+      <c r="F218" s="61"/>
+    </row>
+    <row r="219" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="15"/>
+      <c r="F219" s="61"/>
+    </row>
+    <row r="220" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="15"/>
+      <c r="F220" s="61"/>
+    </row>
+    <row r="221" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="15"/>
+      <c r="F221" s="61"/>
+    </row>
+    <row r="222" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="15"/>
+      <c r="F222" s="61"/>
+    </row>
+    <row r="223" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="15"/>
+      <c r="F223" s="61"/>
+    </row>
+    <row r="224" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="15"/>
+      <c r="F224" s="61"/>
+    </row>
+    <row r="225" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="15"/>
+      <c r="F225" s="61"/>
+    </row>
+    <row r="226" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="15"/>
+      <c r="F226" s="61"/>
+    </row>
+    <row r="227" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="15"/>
+      <c r="F227" s="61"/>
+    </row>
+    <row r="228" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="15"/>
+      <c r="F228" s="61"/>
+    </row>
+    <row r="229" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="15"/>
+      <c r="F229" s="61"/>
+    </row>
+    <row r="230" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="15"/>
+      <c r="F230" s="61"/>
+    </row>
+    <row r="231" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="15"/>
+      <c r="F231" s="61"/>
+    </row>
+    <row r="232" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="15"/>
+      <c r="F232" s="61"/>
+    </row>
+    <row r="233" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="15"/>
+      <c r="F233" s="61"/>
+    </row>
+    <row r="234" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="15"/>
+      <c r="F234" s="61"/>
+    </row>
+    <row r="235" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="15"/>
+      <c r="F235" s="61"/>
+    </row>
+    <row r="236" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="15"/>
+      <c r="F236" s="61"/>
+    </row>
+    <row r="237" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="15"/>
+      <c r="F237" s="61"/>
+    </row>
+    <row r="238" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="15"/>
+      <c r="F238" s="61"/>
+    </row>
+    <row r="239" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="15"/>
+      <c r="F239" s="61"/>
+    </row>
+    <row r="240" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="15"/>
+      <c r="F240" s="61"/>
+    </row>
+    <row r="241" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="15"/>
+      <c r="F241" s="61"/>
+    </row>
+    <row r="242" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="15"/>
+      <c r="F242" s="61"/>
+    </row>
+    <row r="243" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="15"/>
+      <c r="F243" s="61"/>
+    </row>
+    <row r="244" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="15"/>
+      <c r="F244" s="61"/>
+    </row>
+    <row r="245" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="15"/>
+      <c r="F245" s="61"/>
+    </row>
+    <row r="246" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="15"/>
+      <c r="F246" s="61"/>
+    </row>
+    <row r="247" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="15"/>
+      <c r="F247" s="61"/>
+    </row>
+    <row r="248" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="15"/>
+      <c r="F248" s="61"/>
+    </row>
+    <row r="249" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="15"/>
+      <c r="F249" s="61"/>
+    </row>
+    <row r="250" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="15"/>
+      <c r="F250" s="61"/>
+    </row>
+    <row r="251" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="15"/>
+      <c r="F251" s="61"/>
+    </row>
+    <row r="252" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="15"/>
+      <c r="F252" s="61"/>
+    </row>
+    <row r="253" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="15"/>
+      <c r="F253" s="61"/>
+    </row>
+    <row r="254" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="15"/>
+      <c r="F254" s="61"/>
+    </row>
+    <row r="255" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="15"/>
+      <c r="F255" s="61"/>
+    </row>
+    <row r="256" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="15"/>
+      <c r="F256" s="61"/>
+    </row>
+    <row r="257" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="15"/>
+      <c r="F257" s="61"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F6:K34">
+    <sortCondition ref="F6:F34"/>
+    <sortCondition ref="G6:G34"/>
+  </sortState>
+  <dataConsolidate/>
+  <mergeCells count="4">
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="G34:L34"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="K33 K28 K20:K21 K15 K60:K79 K9 K37 K30:K31" xr:uid="{249185F6-C1C2-485E-8C71-F6D78CA2551D}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I60:J79 I7:J15 I17:J24 I35:J38 I26:J33" xr:uid="{9F23BF8C-7A41-4902-B1B1-76D0B3C81C09}">
+      <formula1>Times</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BQ277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:Y10"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="11"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="26" max="69" width="9.140625" style="11"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="11"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="26" max="69" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="52" t="s">
+    <row r="1" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:25" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B2" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:25" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
         <v>148</v>
       </c>
@@ -1764,7 +4507,11 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="str">
+        <f>RIGHT(B6,3)</f>
+        <v>CHF</v>
+      </c>
       <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
@@ -1789,10 +4536,10 @@
       <c r="I6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="32" t="s">
         <v>107</v>
       </c>
@@ -1809,7 +4556,11 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="31"/>
     </row>
-    <row r="7" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="str">
+        <f>RIGHT(B7,3)</f>
+        <v>EUR</v>
+      </c>
       <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
@@ -1834,10 +4585,10 @@
       <c r="I7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="32" t="s">
         <v>85</v>
       </c>
@@ -1854,7 +4605,11 @@
       <c r="X7" s="30"/>
       <c r="Y7" s="31"/>
     </row>
-    <row r="8" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="str">
+        <f>RIGHT(B8,3)</f>
+        <v>CHF</v>
+      </c>
       <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
@@ -1879,10 +4634,10 @@
       <c r="I8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="32" t="s">
         <v>108</v>
       </c>
@@ -1899,7 +4654,11 @@
       <c r="X8" s="30"/>
       <c r="Y8" s="31"/>
     </row>
-    <row r="9" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="str">
+        <f>RIGHT(B9,3)</f>
+        <v>EUR</v>
+      </c>
       <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
@@ -1924,10 +4683,10 @@
       <c r="I9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="32" t="s">
         <v>156</v>
       </c>
@@ -1944,7 +4703,11 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="31"/>
     </row>
-    <row r="10" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="str">
+        <f>RIGHT(B10,3)</f>
+        <v>AED</v>
+      </c>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -1969,27 +4732,31 @@
       <c r="I10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37" t="s">
+      <c r="L10" s="39"/>
+      <c r="M10" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38"/>
-    </row>
-    <row r="11" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="41"/>
+    </row>
+    <row r="11" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="str">
+        <f>RIGHT(B11,3)</f>
+        <v>ARS</v>
+      </c>
       <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
@@ -2012,27 +4779,31 @@
       <c r="I11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37" t="s">
+      <c r="L11" s="39"/>
+      <c r="M11" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="38"/>
-    </row>
-    <row r="12" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="41"/>
+    </row>
+    <row r="12" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="str">
+        <f t="shared" ref="A12:A56" si="0">RIGHT(B12,3)</f>
+        <v>AUD</v>
+      </c>
       <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +4844,11 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
     </row>
-    <row r="13" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>BRL</v>
+      </c>
       <c r="B13" s="29" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +4887,11 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
     </row>
-    <row r="14" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>CAD</v>
+      </c>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
@@ -2153,7 +4932,11 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
     </row>
-    <row r="15" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>CHF</v>
+      </c>
       <c r="B15" s="23" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +4977,11 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
     </row>
-    <row r="16" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
       <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
@@ -2235,7 +5022,11 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
     </row>
-    <row r="17" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
       <c r="B17" s="23" t="s">
         <v>12</v>
       </c>
@@ -2276,7 +5067,11 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>CYP</v>
+      </c>
       <c r="B18" s="29" t="s">
         <v>13</v>
       </c>
@@ -2315,7 +5110,11 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>CZK</v>
+      </c>
       <c r="B19" s="29" t="s">
         <v>14</v>
       </c>
@@ -2354,7 +5153,11 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
     </row>
-    <row r="20" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>DKK</v>
+      </c>
       <c r="B20" s="23" t="s">
         <v>15</v>
       </c>
@@ -2395,7 +5198,11 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
     </row>
-    <row r="21" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>EEK</v>
+      </c>
       <c r="B21" s="29" t="s">
         <v>16</v>
       </c>
@@ -2434,7 +5241,11 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
     </row>
-    <row r="22" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>EUR</v>
+      </c>
       <c r="B22" s="23" t="s">
         <v>17</v>
       </c>
@@ -2475,7 +5286,11 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
     </row>
-    <row r="23" spans="2:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>EUR</v>
+      </c>
       <c r="B23" s="23" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +5331,11 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
     </row>
-    <row r="24" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>GBP</v>
+      </c>
       <c r="B24" s="23" t="s">
         <v>18</v>
       </c>
@@ -2557,7 +5376,11 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
     </row>
-    <row r="25" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD</v>
+      </c>
       <c r="B25" s="23" t="s">
         <v>19</v>
       </c>
@@ -2598,7 +5421,11 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
     </row>
-    <row r="26" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>HUF</v>
+      </c>
       <c r="B26" s="23" t="s">
         <v>20</v>
       </c>
@@ -2639,7 +5466,11 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
     </row>
-    <row r="27" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR</v>
+      </c>
       <c r="B27" s="29" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +5509,11 @@
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
     </row>
-    <row r="28" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ILS</v>
+      </c>
       <c r="B28" s="29" t="s">
         <v>22</v>
       </c>
@@ -2717,7 +5552,11 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
     </row>
-    <row r="29" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>INR</v>
+      </c>
       <c r="B29" s="23" t="s">
         <v>23</v>
       </c>
@@ -2758,7 +5597,11 @@
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
     </row>
-    <row r="30" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ISK</v>
+      </c>
       <c r="B30" s="29" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +5640,11 @@
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
     </row>
-    <row r="31" spans="2:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>JOD</v>
+      </c>
       <c r="B31" s="29" t="s">
         <v>25</v>
       </c>
@@ -2836,7 +5683,11 @@
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
     </row>
-    <row r="32" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>JPY</v>
+      </c>
       <c r="B32" s="23" t="s">
         <v>26</v>
       </c>
@@ -2877,7 +5728,11 @@
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
     </row>
-    <row r="33" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>KWD</v>
+      </c>
       <c r="B33" s="29" t="s">
         <v>27</v>
       </c>
@@ -2916,7 +5771,11 @@
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
     </row>
-    <row r="34" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>LVL</v>
+      </c>
       <c r="B34" s="29" t="s">
         <v>28</v>
       </c>
@@ -2955,7 +5814,11 @@
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
     </row>
-    <row r="35" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>MAD</v>
+      </c>
       <c r="B35" s="29" t="s">
         <v>29</v>
       </c>
@@ -2994,7 +5857,11 @@
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
     </row>
-    <row r="36" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>MXN</v>
+      </c>
       <c r="B36" s="23" t="s">
         <v>30</v>
       </c>
@@ -3035,7 +5902,11 @@
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
     </row>
-    <row r="37" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR</v>
+      </c>
       <c r="B37" s="29" t="s">
         <v>31</v>
       </c>
@@ -3074,7 +5945,11 @@
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
     </row>
-    <row r="38" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>NOK</v>
+      </c>
       <c r="B38" s="23" t="s">
         <v>32</v>
       </c>
@@ -3115,7 +5990,11 @@
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
     </row>
-    <row r="39" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>NZD</v>
+      </c>
       <c r="B39" s="23" t="s">
         <v>33</v>
       </c>
@@ -3156,7 +6035,11 @@
       <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
     </row>
-    <row r="40" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OMR</v>
+      </c>
       <c r="B40" s="29" t="s">
         <v>34</v>
       </c>
@@ -3195,7 +6078,11 @@
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
     </row>
-    <row r="41" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>PEN</v>
+      </c>
       <c r="B41" s="29" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +6121,11 @@
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
     </row>
-    <row r="42" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP</v>
+      </c>
       <c r="B42" s="29" t="s">
         <v>36</v>
       </c>
@@ -3273,7 +6164,11 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
     </row>
-    <row r="43" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>PLN</v>
+      </c>
       <c r="B43" s="29" t="s">
         <v>37</v>
       </c>
@@ -3314,7 +6209,11 @@
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
     </row>
-    <row r="44" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>QAR</v>
+      </c>
       <c r="B44" s="29" t="s">
         <v>38</v>
       </c>
@@ -3353,7 +6252,11 @@
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
     </row>
-    <row r="45" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>RON</v>
+      </c>
       <c r="B45" s="29" t="s">
         <v>39</v>
       </c>
@@ -3392,7 +6295,11 @@
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
     </row>
-    <row r="46" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>RUB</v>
+      </c>
       <c r="B46" s="23" t="s">
         <v>40</v>
       </c>
@@ -3433,7 +6340,11 @@
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
     </row>
-    <row r="47" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>SAR</v>
+      </c>
       <c r="B47" s="23" t="s">
         <v>41</v>
       </c>
@@ -3474,7 +6385,11 @@
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
     </row>
-    <row r="48" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>SEK</v>
+      </c>
       <c r="B48" s="23" t="s">
         <v>42</v>
       </c>
@@ -3515,7 +6430,11 @@
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
     </row>
-    <row r="49" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>SGD</v>
+      </c>
       <c r="B49" s="23" t="s">
         <v>43</v>
       </c>
@@ -3556,7 +6475,11 @@
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
     </row>
-    <row r="50" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>THB</v>
+      </c>
       <c r="B50" s="23" t="s">
         <v>44</v>
       </c>
@@ -3597,7 +6520,11 @@
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
     </row>
-    <row r="51" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>TRY</v>
+      </c>
       <c r="B51" s="23" t="s">
         <v>45</v>
       </c>
@@ -3638,7 +6565,11 @@
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
     </row>
-    <row r="52" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>TWD</v>
+      </c>
       <c r="B52" s="29" t="s">
         <v>46</v>
       </c>
@@ -3677,7 +6608,11 @@
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
     </row>
-    <row r="53" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>USD</v>
+      </c>
       <c r="B53" s="29" t="s">
         <v>47</v>
       </c>
@@ -3718,7 +6653,11 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
     </row>
-    <row r="54" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>USD</v>
+      </c>
       <c r="B54" s="29" t="s">
         <v>47</v>
       </c>
@@ -3759,7 +6698,11 @@
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
     </row>
-    <row r="55" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>UYU</v>
+      </c>
       <c r="B55" s="29" t="s">
         <v>48</v>
       </c>
@@ -3798,7 +6741,11 @@
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
     </row>
-    <row r="56" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>ZAR</v>
+      </c>
       <c r="B56" s="23" t="s">
         <v>49</v>
       </c>
@@ -3839,226 +6786,226 @@
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
     </row>
-    <row r="57" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
@@ -4075,7 +7022,7 @@
       <c r="X276"/>
       <c r="Y276"/>
     </row>
-    <row r="277" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="11:25" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K277"/>
       <c r="L277"/>
       <c r="M277"/>
@@ -4105,14 +7052,14 @@
     <mergeCell ref="K11:L11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I56" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Cutoff_missed</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D56" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Times</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H47:H49 H25:H28 H10:H11 H51:H52 H13 H18:H21 H30:H31 H33:H35 H37 H40:H45 H55"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:F56">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H47:H49 H25:H28 H10:H11 H51:H52 H13 H18:H21 H30:H31 H33:H35 H37 H40:H45 H55" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:F56" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Value_date</formula1>
     </dataValidation>
   </dataValidations>
@@ -4121,27 +7068,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="30.140625" style="11"/>
+    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="30.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>79</v>
       </c>
@@ -4149,7 +7096,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>80</v>
       </c>
@@ -4157,7 +7104,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
@@ -4170,315 +7117,315 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+    <row r="7" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="2:6" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" spans="2:6" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="43"/>
-    </row>
-    <row r="10" spans="2:6" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="2:6" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B8:D8"/>
@@ -4488,7 +7435,7 @@
     <mergeCell ref="C10:D10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Treasury</formula1>
     </dataValidation>
   </dataValidations>
@@ -4496,24 +7443,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AT261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="46" width="9.140625" style="11"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="46" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
@@ -4525,7 +7472,7 @@
       </c>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>62</v>
       </c>
@@ -4535,7 +7482,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>63</v>
       </c>
@@ -4545,7 +7492,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
@@ -4553,7 +7500,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>73</v>
       </c>
@@ -4563,7 +7510,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>74</v>
       </c>
@@ -4571,13 +7518,13 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>83</v>
       </c>
@@ -4585,490 +7532,480 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="48"/>
+    </row>
+    <row r="14" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="48"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="2:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
       <c r="H27" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="2:8" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="45"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E22:G22"/>
@@ -5081,18 +8018,28 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Suggested</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>Autoupdate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>Setup</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>Value_date</formula1>
     </dataValidation>
   </dataValidations>
@@ -5101,32 +8048,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -5143,7 +8090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -5160,12 +8107,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -5182,7 +8129,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>0.625</v>
       </c>
@@ -5199,7 +8146,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
